--- a/cintamani-next/data/products_example.xlsx
+++ b/cintamani-next/data/products_example.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oesiw\Documents\code\cintamani\cintamani-next\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonasosterle/Documents/code/WEB/react-cintamani/cintamani-next/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37740" yWindow="4900" windowWidth="28800" windowHeight="12220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -53,18 +53,9 @@
     <t>Aksobhya Kupferstatue 21cm</t>
   </si>
   <si>
-    <t>Buddhas - Manjusri</t>
-  </si>
-  <si>
     <t>manjusri</t>
   </si>
   <si>
-    <t>Malas  - klein</t>
-  </si>
-  <si>
-    <t>Thangkas  - groß</t>
-  </si>
-  <si>
     <t>kleine mala</t>
   </si>
   <si>
@@ -74,10 +65,25 @@
     <t>Beschreibung</t>
   </si>
   <si>
-    <t>002.jpg</t>
-  </si>
-  <si>
-    <t>001.JPG</t>
+    <t>BAkso008.JPG</t>
+  </si>
+  <si>
+    <t>Thangkas - Big Tsagil</t>
+  </si>
+  <si>
+    <t>Malas - Arm Mala</t>
+  </si>
+  <si>
+    <t>MAM020.JPG</t>
+  </si>
+  <si>
+    <t>Buddhas - Shakyamuni</t>
+  </si>
+  <si>
+    <t>BSha001.JPG, BSha002.JPG, BSha003.JPG</t>
+  </si>
+  <si>
+    <t>TBT020.JPG, TBT019.JPG, TBT018.JPG</t>
   </si>
 </sst>
 </file>
@@ -433,20 +439,20 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -486,21 +492,21 @@
         <v>1</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3">
         <v>649</v>
@@ -509,21 +515,21 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>250</v>
@@ -532,21 +538,21 @@
         <v>2</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D5">
         <v>250</v>
@@ -554,11 +560,11 @@
       <c r="E5">
         <v>2</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>17</v>
+      <c r="F5" t="s">
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
